--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB1F1F-A199-4F73-A757-8F0474393B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC8AEB-0251-4470-A62A-014D20FF2848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品検索" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>作成者</t>
   </si>
@@ -856,25 +856,72 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未ログイン時にURLを入力する
-http://localhost:8080/ec-b/product/productlist</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
+    <t>「商品検索画面」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
-      <t>ジ</t>
+      <t>マエ</t>
     </rPh>
     <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/product/productlist」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セキュリティ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン時ではほかの画面に移動することはできず、ログイン画面にリダイレクトする。</t>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/product/productlist」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1181,7 +1228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,6 +1287,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1249,122 +1302,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1716,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1735,25 +1779,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,23 +1812,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1797,50 +1841,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1849,20 +1893,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1872,82 +1916,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1959,18 +2003,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1982,18 +2026,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2005,18 +2049,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2028,18 +2072,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2051,18 +2095,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -2074,20 +2118,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2099,20 +2143,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2124,18 +2168,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2147,18 +2191,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2170,18 +2214,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2193,18 +2237,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2215,48 +2259,48 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2267,21 +2311,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2292,21 +2336,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2317,358 +2361,348 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="24" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-    </row>
-    <row r="35" spans="1:17" ht="25.5" customHeight="1">
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20" t="s">
+      <c r="C35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+  <mergeCells count="83">
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
@@ -2685,21 +2719,58 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC8AEB-0251-4470-A62A-014D20FF2848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9A38E-68B0-4DAC-86CA-09E607C8455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品検索" sheetId="177" r:id="rId1"/>
@@ -899,27 +899,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/product/productlist」を入力</t>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/product/productlist」を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="70" eb="72">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/product/productlist」を入力</t>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/product/productlist」を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="65" eb="67">
+    <rPh sb="71" eb="73">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1287,128 +1287,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:G35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1779,25 +1779,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,23 +1812,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1841,50 +1841,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1893,20 +1893,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1916,82 +1916,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2003,18 +2003,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2026,18 +2026,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2049,18 +2049,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2072,18 +2072,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2095,18 +2095,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -2118,20 +2118,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2143,20 +2143,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="22" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2168,18 +2168,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2191,18 +2191,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2214,18 +2214,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="22" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2237,18 +2237,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="22" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2259,48 +2259,48 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="22" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2311,21 +2311,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2336,21 +2336,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2361,300 +2361,300 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="29" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="29" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="22" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="22" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="22" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -2665,21 +2665,21 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="60"/>
+      <c r="C36" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="27"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2688,21 +2688,58 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
@@ -2719,58 +2756,21 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9A38E-68B0-4DAC-86CA-09E607C8455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FAC60-C8AE-4F15-BE26-C7AFBA7A25A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品検索" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>作成者</t>
   </si>
@@ -922,6 +922,14 @@
     <rPh sb="71" eb="73">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1287,6 +1295,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1296,119 +1310,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1762,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:G36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1779,25 +1787,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,23 +1820,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1841,50 +1849,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1893,20 +1901,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1916,85 +1924,103 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="29"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -2003,21 +2029,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -2026,21 +2058,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -2049,21 +2087,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -2072,21 +2116,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -2095,21 +2145,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -2118,23 +2174,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -2143,23 +2205,29 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -2168,21 +2236,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -2191,21 +2265,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -2214,21 +2294,27 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -2237,21 +2323,27 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
@@ -2259,51 +2351,63 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
@@ -2311,24 +2415,30 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
@@ -2336,24 +2446,30 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
     </row>
@@ -2361,300 +2477,300 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="24" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="24" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -2665,21 +2781,21 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="24" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2688,32 +2804,47 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2730,47 +2861,32 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FAC60-C8AE-4F15-BE26-C7AFBA7A25A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B3848-8789-48A8-BA00-23342685661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>作成者</t>
   </si>
@@ -668,16 +668,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「アカウント登録」リンクを押下</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -929,7 +919,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1295,128 +1294,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1770,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1787,25 +1786,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,23 +1819,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1846,53 +1845,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1901,20 +1902,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1924,32 +1925,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
@@ -1957,30 +1958,30 @@
         <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
@@ -1988,30 +1989,30 @@
         <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -2029,18 +2030,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -2058,18 +2059,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>22</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -2087,18 +2088,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -2116,18 +2117,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -2145,18 +2146,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>22</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -2174,20 +2175,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>22</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2205,20 +2206,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="22" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2236,18 +2237,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2265,18 +2266,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2294,18 +2295,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="22" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>22</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2323,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="22" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="15">
         <v>45503</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2351,23 +2352,23 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="22" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="15">
         <v>45503</v>
       </c>
@@ -2375,30 +2376,30 @@
         <v>22</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+        <v>78</v>
+      </c>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="15">
         <v>45503</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
@@ -2415,21 +2416,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="15">
         <v>45503</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
@@ -2446,21 +2447,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15">
         <v>45503</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>22</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
@@ -2477,300 +2478,366 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="22" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -2781,44 +2848,87 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="60"/>
+      <c r="C36" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
@@ -2835,58 +2945,21 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B3848-8789-48A8-BA00-23342685661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189282EC-0566-4292-9059-462541B4040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>作成者</t>
   </si>
@@ -866,16 +866,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -885,19 +875,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/product/productlist」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1235,7 +1212,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,6 +1271,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1303,118 +1286,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1770,7 +1750,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1786,25 +1766,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,23 +1799,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1850,50 +1830,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1902,20 +1882,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1925,32 +1905,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="29"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
@@ -1958,30 +1938,30 @@
         <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
@@ -1989,30 +1969,30 @@
         <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
@@ -2020,7 +2000,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -2030,18 +2010,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
@@ -2049,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -2059,18 +2039,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
@@ -2078,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -2088,18 +2068,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
@@ -2107,7 +2087,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -2117,18 +2097,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
@@ -2136,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -2146,18 +2126,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
@@ -2165,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -2175,20 +2155,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
@@ -2196,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2206,20 +2186,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
@@ -2227,7 +2207,7 @@
         <v>22</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2237,18 +2217,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
@@ -2256,7 +2236,7 @@
         <v>22</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2266,18 +2246,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
@@ -2285,7 +2265,7 @@
         <v>22</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2295,18 +2275,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
@@ -2314,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2324,18 +2304,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="15">
         <v>45503</v>
       </c>
@@ -2343,7 +2323,7 @@
         <v>22</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2352,23 +2332,23 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="15">
         <v>45503</v>
       </c>
@@ -2376,30 +2356,30 @@
         <v>22</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
+        <v>76</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="15">
         <v>45503</v>
       </c>
@@ -2407,7 +2387,7 @@
         <v>22</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
@@ -2416,21 +2396,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="15">
         <v>45503</v>
       </c>
@@ -2438,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
@@ -2447,21 +2427,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="15">
         <v>45503</v>
       </c>
@@ -2469,7 +2449,7 @@
         <v>22</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
@@ -2478,23 +2458,23 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2502,30 +2482,30 @@
         <v>22</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
@@ -2533,30 +2513,30 @@
         <v>22</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
@@ -2564,30 +2544,30 @@
         <v>22</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
@@ -2595,30 +2575,30 @@
         <v>22</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15">
         <v>45504</v>
       </c>
@@ -2626,30 +2606,30 @@
         <v>22</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15">
         <v>45504</v>
       </c>
@@ -2657,30 +2637,30 @@
         <v>22</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="24" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15">
         <v>45504</v>
       </c>
@@ -2688,30 +2668,30 @@
         <v>22</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="15">
         <v>45504</v>
       </c>
@@ -2719,30 +2699,30 @@
         <v>22</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="15">
         <v>45504</v>
       </c>
@@ -2750,30 +2730,30 @@
         <v>22</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="15">
         <v>45504</v>
       </c>
@@ -2781,30 +2761,30 @@
         <v>22</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="15">
         <v>45504</v>
       </c>
@@ -2812,97 +2792,93 @@
         <v>22</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A36" s="6">
-        <v>31</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="15">
-        <v>45504</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="17"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
+  <mergeCells count="80">
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2919,47 +2895,29 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189282EC-0566-4292-9059-462541B4040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9348026-6DAF-4A22-84B0-A83627EF61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>作成者</t>
   </si>
@@ -905,6 +905,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1256,9 +1263,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1271,131 +1275,134 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1749,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1766,25 +1773,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,23 +1806,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1830,50 +1837,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1882,20 +1889,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1905,897 +1912,897 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="15">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="61">
         <v>45503</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="15">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="61">
         <v>45503</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="15">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="61">
         <v>45503</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="15">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="61">
         <v>45503</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="15">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="61">
         <v>45503</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="15">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="61">
         <v>45503</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="15">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="61">
         <v>45503</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="15">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="61">
         <v>45503</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="15">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="61">
         <v>45503</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="26.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="22" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="15">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="61">
         <v>45503</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="N15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="13" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="15">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="61">
         <v>45503</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="N16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="14.5" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="15">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="61">
         <v>45503</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="N17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" ht="60" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="22" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="15">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="61">
         <v>45503</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="N18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="26" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="22" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="15">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="61">
         <v>45503</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="N19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="43.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="22" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="15">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="61">
         <v>45503</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="N20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="15">
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="61">
         <v>45503</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="N21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="40" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="15">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="61">
         <v>45503</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:17" ht="40" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="15">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="61">
         <v>45503</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="N23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="15">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="61">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="N24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="15">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="61">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="N25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="15">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="61">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="N26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="29" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="15">
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="61">
         <v>45504</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="N27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="29" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="15">
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="61">
         <v>45504</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="N28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="15">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="61">
         <v>45504</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="N29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="15">
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="61">
         <v>45504</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="N30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="22" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="15">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="61">
         <v>45504</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="N31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="22" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="15">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="61">
         <v>45504</v>
       </c>
-      <c r="N32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="N32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="22" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="15">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="61">
         <v>45504</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="7" t="s">
+      <c r="N33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="15">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="61">
         <v>45504</v>
       </c>
-      <c r="N34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="N34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
@@ -2804,55 +2811,89 @@
       <c r="B35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="15">
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="61">
         <v>45504</v>
       </c>
-      <c r="N35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="N35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="17"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
@@ -2869,55 +2910,21 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP006商品検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9348026-6DAF-4A22-84B0-A83627EF61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C8B7C-0BC5-40F3-A20E-647F84032EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11700" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品検索" sheetId="177" r:id="rId1"/>
@@ -521,35 +521,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テーブルヘッダーに商品画像、商品名、単価、修正、削除が表示され、テーブルデータにすべての商品情報が表示されている
-（修正・削除については、「修正」ボタン、「削除」ボタンが表示されている）</t>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品カテゴリ登録でスポーツ用品を登録し、
 プルダウンで「スポーツ用品」を選択し「カテゴリ検索」のボタンを押下</t>
     <rPh sb="0" eb="2">
@@ -912,6 +883,38 @@
     <t>未実装</t>
     <rPh sb="0" eb="3">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルヘッダーに商品画像、商品名、単価、修正、削除が表示され、テーブルデータにすべての商品情報が表示されている
+（更新・削除については、「更新」ボタン、「削除」ボタンが表示されている）</t>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1278,6 +1281,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1287,24 +1293,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,64 +1404,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E15" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1773,25 +1776,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,23 +1809,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1837,50 +1840,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1889,20 +1892,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1912,102 +1915,102 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="29"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="61">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="20">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="61">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="20">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="61">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="20">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="16"/>
@@ -2017,26 +2020,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="61">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="20">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="16"/>
@@ -2046,26 +2049,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="61">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="20">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="16"/>
@@ -2075,26 +2078,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="61">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="20">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="16"/>
@@ -2104,26 +2107,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="61">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="20">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
@@ -2133,26 +2136,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="61">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="20">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
@@ -2169,21 +2172,21 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="61">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="20">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="16"/>
@@ -2193,28 +2196,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="61">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="20">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="16"/>
@@ -2224,26 +2227,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="61">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="20">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="16"/>
@@ -2253,26 +2256,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="61">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="20">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="16"/>
@@ -2282,26 +2285,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="61">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="20">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="16"/>
@@ -2311,26 +2314,26 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="61">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="20">
         <v>45503</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="16"/>
@@ -2339,62 +2342,62 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="61">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="20">
         <v>45503</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
+        <v>75</v>
+      </c>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
     </row>
     <row r="21" spans="1:17" ht="37" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="61">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="20">
         <v>45503</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="18"/>
@@ -2403,29 +2406,29 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="61">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="20">
         <v>45503</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="18"/>
@@ -2434,29 +2437,29 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="61">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="20">
         <v>45503</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
@@ -2465,374 +2468,374 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="61">
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="20">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="61">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="20">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="61">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="20">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="61">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="20">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" ht="13" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="61">
+      <c r="B28" s="30"/>
+      <c r="C28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="20">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="61">
+      <c r="M29" s="20">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" ht="13" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="61">
+      <c r="M30" s="20">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" ht="26" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="61">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="20">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
     </row>
     <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="61">
+      <c r="B32" s="30"/>
+      <c r="C32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="20">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17" ht="26" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="61">
+      <c r="B33" s="30"/>
+      <c r="C33" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="20">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="61">
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="20">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="56.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="61">
+      <c r="M35" s="20">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P35" s="15"/>
       <c r="Q35" s="16"/>
@@ -2845,29 +2848,40 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2884,47 +2898,36 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
